--- a/DatosBasicos.xlsx
+++ b/DatosBasicos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="462">
   <si>
     <t>Nombre del Grupo</t>
   </si>
@@ -22,36 +22,701 @@
     <t>Datos básicos</t>
   </si>
   <si>
-    <t>GRUPO DE INVESTIGACIÓN EN PROCESOS INDUSTRIALES Y ENERGÍAS RENOVABLES- PIER-</t>
-  </si>
-  <si>
-    <t>Grupo de Investigación en Manejo y Agroindustrialización de Productos de Origen Biológico</t>
-  </si>
-  <si>
-    <t>GNOCIX - Gestión del Conocimiento y la Información</t>
-  </si>
-  <si>
-    <t>Ciencia y Tecnología de Biomoléculas de Interés Agroindustrial - CYTBIA</t>
-  </si>
-  <si>
-    <t>Grupo de Investigación y Desarrollo de Ingeniería en Nuevas Tecnologías (GIDINT)</t>
-  </si>
-  <si>
-    <t>Cadenas de Valor</t>
-  </si>
-  <si>
-    <t>GIMSC (Grupo de Investigacion en Modelamiento y Simulación Computacional)</t>
-  </si>
-  <si>
-    <t>Año y mes de formación:  2014 - 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Departamento - Ciudad:  ATLÁNTICO - SOLEDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Líder:  Gilberto González García</t>
+    <t>CENTRO DE INVESTIGACIONES EN INGENIERIA AMBIENTAL</t>
+  </si>
+  <si>
+    <t>Diagnóstico y Control de la Contaminación</t>
+  </si>
+  <si>
+    <t>Grupo de Investigación en Gestión y Modelación Ambiental (GAIA)</t>
+  </si>
+  <si>
+    <t>INVEMAR - Ecología Pesquera</t>
+  </si>
+  <si>
+    <t>Posgrado en Aprovechamiento de Recursos Hidráulicos</t>
+  </si>
+  <si>
+    <t>Grupo de Investigación en Modelado, Análisis y Simulación de Procesos Ambientales e Industriales, PAI+</t>
+  </si>
+  <si>
+    <t>Grupo de Ingeniería Telemática</t>
+  </si>
+  <si>
+    <t>Solidos  Porosos y Calorimetría Aplicada</t>
+  </si>
+  <si>
+    <t>Grupo de Diseño de Productos y Procesos</t>
+  </si>
+  <si>
+    <t>Grupo de Trabajo Académico en Ingeniería Hidráulica y Ambiental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCEANICOS - Grupo de Oceanografía e Ingeniería Costera de la Universidad Nacional </t>
+  </si>
+  <si>
+    <t>Grupo de Biotecnología Ambiental e Industrial</t>
+  </si>
+  <si>
+    <t>Instituto de Estudios Hidráulicos y Ambientales - IDEHA</t>
+  </si>
+  <si>
+    <t>Grupo de Investigación y Asesoría en Estadística</t>
+  </si>
+  <si>
+    <t>Grupo de Investigación en Desarrollos Tecnologicos y Ambientales</t>
+  </si>
+  <si>
+    <t>Biología de Sistemas</t>
+  </si>
+  <si>
+    <t>GRUPO DE INVESTIGACIÓN EN DEMOGRAFIA, SALUD PUBLICA Y SISTEMAS DE SALUD - GUINDESS</t>
+  </si>
+  <si>
+    <t>ESTUDIO Y CONTROL DE LA CONTAMINACIÓN AMBIENTAL - ECCA</t>
+  </si>
+  <si>
+    <t>Centro de Investigación de Procesos del Tecnológico Comfenalco - CIPTEC</t>
+  </si>
+  <si>
+    <t>GRUPO DE INVESTIGACIONES AMBIENTALES</t>
+  </si>
+  <si>
+    <t>Bioprocesos y Flujos Reactivos</t>
+  </si>
+  <si>
+    <t>GISA</t>
+  </si>
+  <si>
+    <t>Sistemas y Recursos Ambientales Sostenibles SYRAS</t>
+  </si>
+  <si>
+    <t>Ecología y Contaminación Acuática ECONACUA</t>
+  </si>
+  <si>
+    <t>Biodiversidad, biotecnología y conservación de ecosistemas</t>
+  </si>
+  <si>
+    <t>Grupo de Investigación en Ingeniería de Recursos Hidrícos - GIREH</t>
+  </si>
+  <si>
+    <t>GAMA</t>
+  </si>
+  <si>
+    <t>Grupo de Estudios Ambientales</t>
+  </si>
+  <si>
+    <t>Cuencas hidrográficas</t>
+  </si>
+  <si>
+    <t>Gestión Ambiental Sostenible - GiGAS</t>
+  </si>
+  <si>
+    <t>Grupo de Automatizacion y Control.</t>
+  </si>
+  <si>
+    <t>Agua y Saneamiento</t>
+  </si>
+  <si>
+    <t>Grupo Interdisciplinario en Estudios Culturales, Económicos y Administrativos -GICEA-</t>
+  </si>
+  <si>
+    <t>Salud y Ambiente</t>
+  </si>
+  <si>
+    <t>GRUPO DE CIENCIA E INGENIERIA EN SISTEMAS AMBIENTALES-GCISA-TSEJK</t>
+  </si>
+  <si>
+    <t>HUMEDALES DEL CARIBE COLOMBIANO</t>
+  </si>
+  <si>
+    <t>AGROBIODIVERSIDAD Y BIOTECNOLOGÍA</t>
+  </si>
+  <si>
+    <t>INVEMAR - Calidad Ambiental Marina</t>
+  </si>
+  <si>
+    <t>Grupo de Investigación Estudios Ambientales en Agua y Suelo</t>
+  </si>
+  <si>
+    <t>Oceanografia Operacional</t>
+  </si>
+  <si>
+    <t>GRUPO AMBIENTAL DE INVESTIGACION APLICADA -GAIA UDES-</t>
+  </si>
+  <si>
+    <t>GRUPO DE INVESTIGACION EN ASUNTOS AMBIENTALES Y DESARROLLO SOSTENIBLE (MINDALA)</t>
+  </si>
+  <si>
+    <t>GRUPO DE INVESTIGACIÓN EN INGENIERÍA GEOLÓGICA - GIINGEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMHA/ Calidad de Aguas y Modelación Hídrica y Ambiental </t>
+  </si>
+  <si>
+    <t>GRUPO DE INVESTIGACION EN ZOOLOGIA</t>
+  </si>
+  <si>
+    <t>Grupo de Estudios Ambientales para la Sostenibilidad, la Innovación y el Desarrollo GEASID</t>
+  </si>
+  <si>
+    <t>GRINDIC</t>
+  </si>
+  <si>
+    <t>Grupo de Investigación en Tecnologías Aplicadas y Sistemas de Información  -GRITAS-</t>
+  </si>
+  <si>
+    <t>Grupo de Investigaciones Ambientales Agua, Aire y Suelo (GIAAS)</t>
+  </si>
+  <si>
+    <t>Grupo de Investigación en Robótica y Automatización Industrial GIRA</t>
+  </si>
+  <si>
+    <t>GRUPO DE INNOVACION Y DESARROLLO TECNOLOGICO DE UNISANGIL - IDENTUS</t>
+  </si>
+  <si>
+    <t>Grupo de Investigacion en Desarrollo Tecnologico GIDESTEC</t>
+  </si>
+  <si>
+    <t>PROPROBOS</t>
+  </si>
+  <si>
+    <t>Limnología y Recursos Hídricos</t>
+  </si>
+  <si>
+    <t>Grupo de Estudios Ambientales para el Desarrollo Sostenible</t>
+  </si>
+  <si>
+    <t>Grupo de Investigación en Ciencias Básicas e Ingeniería</t>
+  </si>
+  <si>
+    <t>BIOTECNOLOGIA</t>
+  </si>
+  <si>
+    <t>Biodiversidad y Educación Ambiental - BIOEDUQ</t>
+  </si>
+  <si>
+    <t>GRUPO DE INVESTIGACIÓN EN BIODIVERSIDAD Y DESARROLLO AMAZONICO,  ¿BYDA¿</t>
+  </si>
+  <si>
+    <t>Taxonomía, Sistemática y Ecología Marina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVICA </t>
+  </si>
+  <si>
+    <t>Monitoreo, modelación y gestión de cuencas hidrograficas</t>
+  </si>
+  <si>
+    <t>Calidad y Preservación de Ecosistemas Acuáticos (CAPREA)</t>
+  </si>
+  <si>
+    <t>GIBEAM</t>
+  </si>
+  <si>
+    <t>Grupo de Investigación en Recursos Naturales, Biotecnología y Bioprospección- RENABBIO</t>
+  </si>
+  <si>
+    <t>Grupo de Procesamiento Digital de Señales y Procesadores - GDSPROC</t>
+  </si>
+  <si>
+    <t>Limnología Básica y Experimental y Biología y Taxonomía Marina</t>
+  </si>
+  <si>
+    <t>Grupo de Estudio en Geología, Ecología y Conservación GECO</t>
+  </si>
+  <si>
+    <t>GICMIL Grupo de Investigación en Comunicaciones Militares</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1991 - 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  BOGOTÁ, D. C. - BOGOTÁ, D.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Ricardo Morales Betancourt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2017-07-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://ciia.uniandes.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  ciia@uniandes.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Clasificación:  A1  con vigencia hasta la publicación de los resultados de la siguiente convocatoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ingeniería y Tecnología -- Ingeniería Ambiental -- Ingeniería Ambiental y Geológica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología:  Ciencia, Tecnología e innovación en Ambiente, Biodiversidad y Hábitat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología (secundario):  No Aplica</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2000 - 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  ANTIOQUIA - MEDELLÍN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Gustavo Antonio Peñuela Mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2017-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://www.udea.edu.co/gdcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  cotizacionesgdcon@udea.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología (secundario):  Biotecnología</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1993 - 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Francisco José Molina Pérez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2012-11-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  www.gaiaudea.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  grupogaia@udea.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Naturales -- Ciencias de la Tierra y Medioambientales -- Geociencias (Multidisciplinario)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología (secundario):  Ciencias del Mar y los Recursos Hidrobiológicos</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1985 - 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  MAGDALENA - SANTA MARTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Mario Enrique Rueda Hernández</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2015-12-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://www.invemar.org.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  mario.rueda@invemar.org.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Agrícolas -- Agricultura, Silvicultura y Pesca -- Pesca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología:  Ciencias del Mar y los Recursos Hidrobiológicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología (secundario):  Ciencia, Tecnología e innovación en Ambiente, Biodiversidad y Hábitat</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1984 - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Andrés Ochoa Jaramillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2019-05-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  https://www.mendeley.com/groups/1344453/recursos-hidraulicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  aochoaj@unal.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología:  Ciencia, Tecnología e Innovación en Geociencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología (secundario):  Ciencia, Tecnología e Innovación en Ingeniería</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2002 - 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  VALLE DEL CAUCA - CALI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Santiago Laín Beatove</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2019-03-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  www.uao.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  slain@uao.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ingeniería y Tecnología -- Ingeniería Mecánica -- Ingeniería Mecánica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología:  Ciencia, Tecnología e Innovación en Ingeniería</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología (secundario):  Ciencias Básicas</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1976 - 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  CAUCA - POPAYÁN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Juan Carlos Corrales Muñoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2014-08-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  git.unicauca.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  git@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Naturales -- Computación y Ciencias de la Información -- Ciencias de la Computación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología:  Ciencia, Tecnología e Innovación en Tecnologías de la Información y las Comunicaciones</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2000 - 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Juan Carlos Moreno Piraján</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2014-10-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  www.uniandes.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  jumoreno@uniandes.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Naturales -- Ciencias Químicas -- Química Física</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología:  Ciencias Básicas</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2004 - 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Luis Humberto Reyes Barrios</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2019-09-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  https://gdpp.uniandes.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  gdpp@uniandes.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ingeniería y Tecnología -- Ingeniería Química -- Ingeniería Química (Plantas y Productos)</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1986 - 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  CALDAS - MANIZALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Jorge Julián Vélez Upegui</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2021-01-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://idea.manizales.unal.edu.co/GTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  jjvelezu@unal.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Naturales -- Ciencias de la Tierra y Medioambientales -- Meteorología y Ciencias Atmosféricas</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2002 - 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Andrés Fernando Osorio Arias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2019-05-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://oceanicos.unalmed.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  afosorioar@unalmed.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Naturales -- Ciencias de la Tierra y Medioambientales -- Oceanografía, Hidrología y Recursos del Agua</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1996 - 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Raúl Alberto Poutou Piñales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2017-07-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  www.javeriana.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  rpoutou@javeriana.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Agrícolas -- Agricultura, Silvicultura y Pesca -- Agronomía</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología:  Biotecnología</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1998 - 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  ATLÁNTICO - BARRANQUILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Aymer Yeferson MATURANA CORDOBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://www.uninorte.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  havila@uninorte.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ingeniería y Tecnología -- Ingeniería Civil -- Ingeniería Civil</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1995 - 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  QUINDÍO - ARMENIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  María Dolly García González</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2020-07-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  mdgarcia@uniquindio.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Naturales -- Matemática -- Estadísticas y Probabilidades (Investigación en Metodologías)</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2004 - 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Gloria Yaneth Florez Yepes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2019-05-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  www.ucm.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  jnaranjo@ucm.edu.co</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2009 - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Isabel Cristina Ortíz Trujillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2014-01-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  isabel.ortiz@upb.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Médicas y de la Salud -- Medicina Clínica -- Otros Temas de Medicina Clínica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología:  Ciencia, Tecnología e Innovación en Salud</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  SANTANDER - BUCARAMANGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Myriam Ruiz Rodríguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2020-08-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  myriam@uis.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Médicas y de la Salud -- Ciencias de la Salud -- Salud Pública</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología (secundario):  Ciencia, Tecnología e Innovación en Ciencias Humanas, Sociales y Educación</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1993 - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Patricia Torres Lozada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2019-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://ingenieria.univalle.edu.co/controlambiental.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  patricia.torres@correounivalle.edu.co</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2004 - 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  BOLÍVAR - CARTAGENA DE INDIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  JUDITH DEL ROSARIO LOMBANA DEL RIO</t>
   </si>
   <si>
     <t xml:space="preserve"> 
@@ -59,38 +724,894 @@
   </si>
   <si>
     <t xml:space="preserve"> 
- E-mail:  gigonzalez@itsa.edu.co</t>
+ Página web:  http://www.fitco.edu.co/SitiosFutco/programas/index.aspx?sit=75</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  jlombana@tecnologicocomfenalco.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ingeniería y Tecnología -- Otras Ingenierías y Tecnologías -- Alimentos y Bebidas</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1974 - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  MARILUZ BETANCUR VELEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2015-11-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  www.upb.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  grupo.ambiental@upb.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología:  No Aplica</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2003 - 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Angela Adriana Ruiz Colorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2019-05-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  www.unal_med.edu.co/BIO-FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  aaruiz@unal.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología (secundario):  Investigaciones en Energía y Minería</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1999 - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  LA GUAJIRA - RIOHACHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  JHONNY ISAAC PEREZ MONTIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2018-05-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  jpemon@uniguajira.edu.co</t>
   </si>
   <si>
     <t xml:space="preserve"> 
  Clasificación:  A  con vigencia hasta la publicación de los resultados de la siguiente convocatoria</t>
   </si>
   <si>
+    <t>Año y mes de formación:  2002 - 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Robinson Andrey Navarrete Sánchez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2020-08-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://www.umb.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  robinson.navarrete@docentes.umb.edu.co</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2004 - 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  VALLE DEL CAUCA - PALMIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Guillermo Duque Nivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  gduquen@unal.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Naturales -- Ciencias Biológicas -- Ecología</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2000 - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Jhon Charles Donato Rondón</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2019-03-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  www.biologia.unal.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  jcdonator@unal.edu.co</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1998 - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Erasmo Alfredo RODRIGUEZ SANDOVAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2019-04-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  https://sites.google.com/a/unal.edu.co/dica/investigacion/gireh; www.gireh.unal.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  gruiirh_bog@unal.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  ANTIOQUIA - CALDAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Álvaro de Jesús Arango Ruiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2020-12-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://www.unilasallista.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  aarango@unilasallista.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Apolinar Figueroa Casas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2015-12-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://gea.unicauca.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  apolinar@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología (secundario):  Ciencia, Tecnología e Innovación en Ciencias Agropecuarias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  TOLIMA - IBAGUÉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Uriel Pérez Gómez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2019-06-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://labsig.wixsite.com/cuencashidrograficas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  uperez@ut.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Agrícolas -- Agricultura, Silvicultura y Pesca -- Forestal</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2007 - 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  META - VILLAVICENCIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Marco Aurelio TORRES MORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2017-07-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  gigas@unillanos.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Sociales -- Geografía Social y Económica -- Ciencias Ambientales (Aspectos Sociales)</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1999 - 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  NORTE DE SANTANDER - PAMPLONA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Aldo Pardo Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2020-02-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://www.unipamplona.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  apardo13@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ingeniería y Tecnología -- Ingenierías Eléctrica, Electrónica e Informática -- Ingeniería Eléctrica y Electrónica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  RISARALDA - PEREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Diego Paredes Cuervo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2019-02-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://www.aguaysaneamientoutp.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  aguaysaneamiento@utp.edu.co</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2000 - 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Bernardo Javier TOBAR QUITIAQUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2019-06-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  javo@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Sociales -- Otras Ciencias Sociales -- Ciencias Sociales, Interdisciplinaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología:  Ciencia, Tecnología e Innovación en Ciencias Humanas, Sociales y Educación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Juan Gabriel Piñeros Jiménez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2020-04-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://www.udea.edu.co/wps/portal/udea/web/inicio/investigacion/grupos-investigacion/ciencias-medica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  gruposasaludpublica@udea.edu.co</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2004 - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Juan Carlos Casas Zapata</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  jccasas@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2003 - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  ATLÁNTICO - PUERTO COLOMBIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Ximena María Vargas Ramírez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2017-09-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  ximenavargas@mail.uniatlantico.edu.co</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2013 - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Esperanza Torres Rojas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2019-03-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  etorresr@unal.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Agrícolas -- Biotecnología Agrícola -- Biotecnología Agrícola y de Alimentos</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1996 - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Luisa Fernanda Espinosa Díaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2009-01-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  luisa.espinosa@invemar.org.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Naturales -- Ciencias de la Tierra y Medioambientales -- Ciencias del Medio Ambiente</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2007 - 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Diana Marcela Ocampo Serna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2020-05-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  diana.ocampo@ucaldas.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Naturales -- Ciencias Químicas -- Química Orgánica</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1995 - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Claudia Janeth Dagua Paz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2017-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://www.cioh.org.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  cdagua@dimar.mil.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Naturales -- Ciencias de la Tierra y Medioambientales -- Investigación del Clima</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología (secundario):  Ciencia, Tecnología e Innovación en Seguridad y Defensa</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2002 - 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  MAYA SIAN CAYCEDO GARCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  may.caycedo@mail.udes.edu.co</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2015 - 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  NORTE DE SANTANDER - OCAÑA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Wilson angarita castilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2017-07-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://die.ufpso.edu.co/index.php/estructura/grupos-de-investigacion/informacion-grupos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  mindala@ufpso.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Clasificación:  B  con vigencia hasta la publicación de los resultados de la siguiente convocatoria</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2016 - 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  CESAR - VALLEDUPAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Luis Carlos Tapia Vela</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2019-04-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  giingeo@areandina.edu.co</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 
  Área de conocimiento:  Ingeniería y Tecnología -- Otras Ingenierías y Tecnologías -- Otras Ingenierías y Tecnologías</t>
   </si>
   <si>
     <t xml:space="preserve"> 
- Programa nacional de ciencia y tecnología:  Ciencia, Tecnología e Innovación en Ingeniería</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Programa nacional de ciencia y tecnología (secundario):  Investigaciones en Energía y Minería</t>
-  </si>
-  <si>
-    <t>Año y mes de formación:  2007 - 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Departamento - Ciudad:  VALLE DEL CAUCA - PALMIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Líder:  Saul Dussán Sarria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- E-mail:  sdussan@unal.edu.co</t>
+ Departamento - Ciudad:  CÓRDOBA - MONTERÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Guillermo J. Acuña ROBLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2017-06-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  sanitaria.monteria@upb.edu.co</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2002 - 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Sergio Losada Prado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2017-10-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  greinoso@ut.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Naturales -- Ciencias Biológicas -- Zoología, Ornitología, Entomología, Ciencias Biológicas del Comportamiento</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2007 - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  SANTANDER - SAN GIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Frank Carlos Vargas Tangua</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2018-12-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  www.unisangil.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  fvargas@unisangil.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  SANTANDER - FLORIDABLANCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Néstor Iván Prado García</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2016-02-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://www.upb.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  nestor.prado@upb.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ingeniería y Tecnología -- Ingeniería Civil -- Ingeniería Estructural y Municipal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Edwin Alexander Puerta Del Castillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2020-07-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://goo.gl/BeQZyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  epuerta@utb.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ingeniería y Tecnología -- Ingenierías Eléctrica, Electrónica e Informática -- Ingeniería de Sistemas y Comunicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología (secundario):  Ciencia, Tecnología e Innovación en Tecnologías de la Información y las Comunicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Jacipt Alexander Ramón Valencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2014-01-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  www.unipamplona.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  giaas@unipamplona.edu.co</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2003 - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  BOYACÁ - SOGAMOSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Wilson Javier Perez Holguin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2019-03-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://www.uptc.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  grupo.gira@uptc.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ingeniería y Tecnología -- Ingenierías Eléctrica, Electrónica e Informática -- Automatización y Sistemas de Control</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2005 - 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Wilson Gamboa Contreras</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://www.unisangil.edu.co/index.php?option=com_content&amp;view=article&amp;id=282&amp;Itemid=384</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  innovacionydesarrollo@unisangil.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ingeniería y Tecnología -- Ingenierías Eléctrica, Electrónica e Informática -- Robótica y Control Automático</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2010 - 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Harold Esneider Perez Waltero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2019-10-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://www.academictol.com/gidestec/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  harold.perez@unad.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ingeniería y Tecnología -- Ingenierías Eléctrica, Electrónica e Informática -- Telecomunicaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Jaime Alberto MORENO GUTIÉRREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2020-09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://www.udistrital.edu.co/forestal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  jmoreno@udistrital.edu.co</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1998 - 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  ANTIOQUIA - RIONEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  María Isabel Ríos Pulgarín</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2017-07-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://www.uco.edu.co/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  mrios@uco.edu.co</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1997 - 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Elizabeth Muñoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  emunoz@uao.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Naturales -- Ciencias Biológicas -- Conservación de la biodiversidad</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2007 - 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  NELLY YOLANDA CESPEDES GUEVARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2017-06-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://www.areandina.edu.co/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  ncespedes@areandina.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Naturales -- Otras Ciencias Naturales -- Otras Ciencias Naturales</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2007 - 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Leanis Mireya Pitre Ruiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2015-03-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  lpitre@uniguajira.edu.co</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1990 - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Ligia Janneth Molina Rico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2019-09-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://www.uniquindio.edu.co/facultades/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  bioeduq@uniquindio.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Naturales -- Ciencias Biológicas -- Otras Biologías</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2009 - 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  CAQUETÁ - FLORENCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  BETSELENE MURCIA ORDOÑEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2019-05-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  udlabyda@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Naturales -- Ciencias Biológicas -- Biología del Desarrollo</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  1997 - 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Cristina Maria Cedeño Posso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2017-06-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://www.invemar.org.co/psubcategorias.jsp?idcat=124&amp;idsub=250</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  andrea.polanco@invemar.org.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Naturales -- Ciencias Biológicas -- Biología Marina y del Agua</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2004 - 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  BOYACÁ - TUNJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Monica Helena Rodriguez Mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  www.ustatunja.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  decano.civil@ustatunja.edu.co</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2000 - 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Viviana Vargas Franco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  vvargasf@unal.edu.co</t>
   </si>
   <si>
     <t xml:space="preserve"> 
@@ -98,147 +1619,122 @@
   </si>
   <si>
     <t xml:space="preserve"> 
- Área de conocimiento:  Ingeniería y Tecnología -- Otras Ingenierías y Tecnologías -- Alimentos y Bebidas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Programa nacional de ciencia y tecnología:  Ciencia, Tecnología e Innovación en Ciencias Agropecuarias</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Programa nacional de ciencia y tecnología (secundario):  Ciencia, Tecnología e Innovación en Ingeniería</t>
-  </si>
-  <si>
-    <t>Año y mes de formación:  2006 - 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Departamento - Ciudad:  CÓRDOBA - MONTERÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Líder:  JUAN MANUEL TORRES TOVIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- ¿La información de este grupo se ha certificado?:  Si el día 2019-03-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Página web:  http://www.unisinu.edu.co/investigaciones/inicio.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- E-mail:  juantorrest@unsinu.edu.co</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Clasificación:  A1  con vigencia hasta la publicación de los resultados de la siguiente convocatoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Programa nacional de ciencia y tecnología (secundario):  Ciencia, Tecnología e Innovación en Tecnologías de la Información y las Comunicaciones</t>
-  </si>
-  <si>
-    <t>Año y mes de formación:  2003 - 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Departamento - Ciudad:  CAUCA - POPAYÁN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Líder:  Héctor Samuel Villada Castillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- ¿La información de este grupo se ha certificado?:  Si el día 2019-06-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- E-mail:  grupocytbia@unicauca.edu.co</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Área de conocimiento:  Ciencias Agrícolas -- Agricultura, Silvicultura y Pesca -- Agricultura</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Programa nacional de ciencia y tecnología (secundario):  No Aplica</t>
-  </si>
-  <si>
-    <t>Año y mes de formación:  2004 - 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Departamento - Ciudad:  BOYACÁ - TUNJA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Líder:  Cesar Mauricio Galarza Bogotá</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Página web:  www.ustatunja.edu.co</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- E-mail:  director.ciiam@ustatunja.edu.co</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Clasificación:  B  con vigencia hasta la publicación de los resultados de la siguiente convocatoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Programa nacional de ciencia y tecnología:  Ciencia, Tecnología e Innovación en Tecnologías de la Información y las Comunicaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Líder:  Zuly Yuliana Delgado ESPINOSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- ¿La información de este grupo se ha certificado?:  Si el día 2019-09-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Página web:  www.unicomfacauca.edu.co</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- E-mail:  grupocadenasdevalor@unicomfacauca.edu.co</t>
-  </si>
-  <si>
-    <t>Año y mes de formación:  2002 - 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Departamento - Ciudad:  ANTIOQUIA - MEDELLÍN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Líder:  William Fernando Espinosa García</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- ¿La información de este grupo se ha certificado?:  Si el día 2017-06-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Página web:  http://www.usbmed.edu.co/Facultades/Ingenierias/Investigacion/Grupos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- E-mail:  investiga.ingenieria@usbmed.edu.co</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Área de conocimiento:  Ciencias Naturales -- Computación y Ciencias de la Información -- Ciencias de la Información y Bioinformática</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Programa nacional de ciencia y tecnología (secundario):  Ciencia, Tecnología e Innovación en Ciencias Humanas, Sociales y Educación</t>
+ Líder:  Marlon Peláez Rodríguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  mpelaez@uniamazonia.edu.co</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2017 - 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Patricia Emilce Romero Murillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2019-06-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  patricia.romero@unisinu.edu.co</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2012 - 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  CALDAS - LA DORADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Carlos Arturo Tamayo Sanchez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  cartaza@misena.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Área de conocimiento:  Ciencias Agrícolas -- Otras Ciencias Agrícolas -- Otras Ciencias Agrícolas</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2001 - 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Jorge Iván Marín Hurtado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2017-06-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://ingelectuq.net/gdsproc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  gdsproc@uniquindio.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Mario Hernán Londoño Mesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2017-07-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  http://www.udea.edu.co/wps/portal/udea/web/inicio/investigacion/grupos-investigacion/ciencias-natura</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  limnobaseybiotamar@gmail.com</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2005 - 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Luis Germán Gómez Bernal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2016-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  ggomez@unicauca.edu.co</t>
+  </si>
+  <si>
+    <t>Año y mes de formación:  2007 - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Departamento - Ciudad:  CUNDINAMARCA - FACATATIVÁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Líder:  Adriana Beatriz González Guerrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ ¿La información de este grupo se ha certificado?:  Si el día 2020-07-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Página web:  https://ceinv.milaulas.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ E-mail:  cienciatecnologia.escom@cedoc.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Programa nacional de ciencia y tecnología:  Ciencia, Tecnología e Innovación en Seguridad y Defensa</t>
   </si>
 </sst>
 </file>
@@ -596,7 +2092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C681"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,7 +2114,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -626,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -634,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -642,529 +2138,5622 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
         <v>9</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>6</v>
+      </c>
+      <c r="C108" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>9</v>
+      </c>
+      <c r="C131" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>6</v>
+      </c>
+      <c r="C138" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>8</v>
+      </c>
+      <c r="C140" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>9</v>
+      </c>
+      <c r="C141" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>2</v>
+      </c>
+      <c r="C144" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>6</v>
+      </c>
+      <c r="C147" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>9</v>
+      </c>
+      <c r="C150" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>2</v>
+      </c>
+      <c r="C153" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>4</v>
+      </c>
+      <c r="C155" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>6</v>
+      </c>
+      <c r="C157" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>9</v>
+      </c>
+      <c r="C160" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>2</v>
+      </c>
+      <c r="C163" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>6</v>
+      </c>
+      <c r="C166" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>9</v>
+      </c>
+      <c r="C169" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>2</v>
+      </c>
+      <c r="C172" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>6</v>
+      </c>
+      <c r="C175" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>7</v>
+      </c>
+      <c r="C176" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>8</v>
+      </c>
+      <c r="C177" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>9</v>
+      </c>
+      <c r="C178" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>19</v>
+      </c>
+      <c r="C179" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>2</v>
+      </c>
+      <c r="C181" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>4</v>
+      </c>
+      <c r="C183" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>6</v>
+      </c>
+      <c r="C185" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>9</v>
+      </c>
+      <c r="C188" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>20</v>
+      </c>
+      <c r="C189" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>2</v>
+      </c>
+      <c r="C191" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>4</v>
+      </c>
+      <c r="C193" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>6</v>
+      </c>
+      <c r="C195" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>7</v>
+      </c>
+      <c r="C196" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>9</v>
+      </c>
+      <c r="C198" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>21</v>
+      </c>
+      <c r="C199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1">
+        <v>2</v>
+      </c>
+      <c r="C201" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1">
+        <v>3</v>
+      </c>
+      <c r="C202" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1">
+        <v>4</v>
+      </c>
+      <c r="C203" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1">
+        <v>6</v>
+      </c>
+      <c r="C205" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1">
+        <v>7</v>
+      </c>
+      <c r="C206" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1">
+        <v>8</v>
+      </c>
+      <c r="C207" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1">
+        <v>9</v>
+      </c>
+      <c r="C208" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1">
+        <v>0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>22</v>
+      </c>
+      <c r="C209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1">
+        <v>2</v>
+      </c>
+      <c r="C211" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
+        <v>3</v>
+      </c>
+      <c r="C212" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1">
+        <v>4</v>
+      </c>
+      <c r="C213" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1">
+        <v>6</v>
+      </c>
+      <c r="C215" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1">
+        <v>7</v>
+      </c>
+      <c r="C216" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1">
+        <v>8</v>
+      </c>
+      <c r="C217" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1">
+        <v>9</v>
+      </c>
+      <c r="C218" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1">
+        <v>0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>23</v>
+      </c>
+      <c r="C219" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1">
+        <v>2</v>
+      </c>
+      <c r="C221" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1">
+        <v>3</v>
+      </c>
+      <c r="C222" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1">
+        <v>6</v>
+      </c>
+      <c r="C224" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1">
+        <v>7</v>
+      </c>
+      <c r="C225" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1">
+        <v>8</v>
+      </c>
+      <c r="C226" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1">
+        <v>9</v>
+      </c>
+      <c r="C227" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1">
+        <v>0</v>
+      </c>
+      <c r="B228" t="s">
+        <v>24</v>
+      </c>
+      <c r="C228" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1">
+        <v>2</v>
+      </c>
+      <c r="C230" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1">
+        <v>3</v>
+      </c>
+      <c r="C231" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1">
+        <v>4</v>
+      </c>
+      <c r="C232" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1">
+        <v>5</v>
+      </c>
+      <c r="C233" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1">
+        <v>6</v>
+      </c>
+      <c r="C234" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1">
+        <v>7</v>
+      </c>
+      <c r="C235" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1">
+        <v>8</v>
+      </c>
+      <c r="C236" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1">
+        <v>9</v>
+      </c>
+      <c r="C237" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1">
+        <v>0</v>
+      </c>
+      <c r="B238" t="s">
+        <v>25</v>
+      </c>
+      <c r="C238" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1">
+        <v>1</v>
+      </c>
+      <c r="C239" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1">
+        <v>2</v>
+      </c>
+      <c r="C240" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1">
+        <v>3</v>
+      </c>
+      <c r="C241" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1">
+        <v>5</v>
+      </c>
+      <c r="C242" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1">
+        <v>6</v>
+      </c>
+      <c r="C243" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1">
+        <v>7</v>
+      </c>
+      <c r="C244" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1">
+        <v>8</v>
+      </c>
+      <c r="C245" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1">
+        <v>9</v>
+      </c>
+      <c r="C246" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1">
+        <v>0</v>
+      </c>
+      <c r="B247" t="s">
+        <v>26</v>
+      </c>
+      <c r="C247" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1">
+        <v>1</v>
+      </c>
+      <c r="C248" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1">
+        <v>2</v>
+      </c>
+      <c r="C249" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1">
+        <v>3</v>
+      </c>
+      <c r="C250" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1">
+        <v>4</v>
+      </c>
+      <c r="C251" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1">
+        <v>6</v>
+      </c>
+      <c r="C253" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1">
+        <v>7</v>
+      </c>
+      <c r="C254" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1">
+        <v>8</v>
+      </c>
+      <c r="C255" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1">
+        <v>9</v>
+      </c>
+      <c r="C256" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1">
+        <v>0</v>
+      </c>
+      <c r="B257" t="s">
+        <v>27</v>
+      </c>
+      <c r="C257" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1">
+        <v>1</v>
+      </c>
+      <c r="C258" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1">
+        <v>2</v>
+      </c>
+      <c r="C259" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1">
+        <v>3</v>
+      </c>
+      <c r="C260" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1">
+        <v>4</v>
+      </c>
+      <c r="C261" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1">
+        <v>5</v>
+      </c>
+      <c r="C262" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1">
+        <v>6</v>
+      </c>
+      <c r="C263" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1">
+        <v>7</v>
+      </c>
+      <c r="C264" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1">
+        <v>8</v>
+      </c>
+      <c r="C265" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1">
+        <v>9</v>
+      </c>
+      <c r="C266" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1">
+        <v>0</v>
+      </c>
+      <c r="B267" t="s">
+        <v>28</v>
+      </c>
+      <c r="C267" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1">
+        <v>1</v>
+      </c>
+      <c r="C268" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1">
+        <v>2</v>
+      </c>
+      <c r="C269" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1">
+        <v>3</v>
+      </c>
+      <c r="C270" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1">
+        <v>4</v>
+      </c>
+      <c r="C271" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1">
+        <v>6</v>
+      </c>
+      <c r="C273" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1">
+        <v>7</v>
+      </c>
+      <c r="C274" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1">
+        <v>8</v>
+      </c>
+      <c r="C275" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1">
+        <v>9</v>
+      </c>
+      <c r="C276" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1">
+        <v>0</v>
+      </c>
+      <c r="B277" t="s">
+        <v>29</v>
+      </c>
+      <c r="C277" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1">
+        <v>1</v>
+      </c>
+      <c r="C278" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1">
+        <v>2</v>
+      </c>
+      <c r="C279" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1">
+        <v>3</v>
+      </c>
+      <c r="C280" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1">
+        <v>4</v>
+      </c>
+      <c r="C281" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1">
+        <v>6</v>
+      </c>
+      <c r="C283" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1">
+        <v>7</v>
+      </c>
+      <c r="C284" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1">
+        <v>8</v>
+      </c>
+      <c r="C285" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1">
+        <v>9</v>
+      </c>
+      <c r="C286" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1">
+        <v>0</v>
+      </c>
+      <c r="B287" t="s">
+        <v>30</v>
+      </c>
+      <c r="C287" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1">
+        <v>1</v>
+      </c>
+      <c r="C288" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1">
+        <v>2</v>
+      </c>
+      <c r="C289" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1">
+        <v>3</v>
+      </c>
+      <c r="C290" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1">
+        <v>4</v>
+      </c>
+      <c r="C291" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1">
+        <v>5</v>
+      </c>
+      <c r="C292" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1">
+        <v>6</v>
+      </c>
+      <c r="C293" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1">
+        <v>7</v>
+      </c>
+      <c r="C294" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1">
+        <v>8</v>
+      </c>
+      <c r="C295" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1">
+        <v>9</v>
+      </c>
+      <c r="C296" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1">
+        <v>0</v>
+      </c>
+      <c r="B297" t="s">
+        <v>31</v>
+      </c>
+      <c r="C297" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1">
+        <v>1</v>
+      </c>
+      <c r="C298" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1">
+        <v>2</v>
+      </c>
+      <c r="C299" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1">
+        <v>3</v>
+      </c>
+      <c r="C300" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1">
+        <v>6</v>
+      </c>
+      <c r="C302" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1">
+        <v>7</v>
+      </c>
+      <c r="C303" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1">
+        <v>8</v>
+      </c>
+      <c r="C304" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1">
+        <v>9</v>
+      </c>
+      <c r="C305" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1">
+        <v>0</v>
+      </c>
+      <c r="B306" t="s">
+        <v>32</v>
+      </c>
+      <c r="C306" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1">
+        <v>1</v>
+      </c>
+      <c r="C307" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1">
+        <v>2</v>
+      </c>
+      <c r="C308" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1">
+        <v>3</v>
+      </c>
+      <c r="C309" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1">
+        <v>4</v>
+      </c>
+      <c r="C310" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1">
+        <v>5</v>
+      </c>
+      <c r="C311" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1">
+        <v>6</v>
+      </c>
+      <c r="C312" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1">
+        <v>7</v>
+      </c>
+      <c r="C313" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1">
+        <v>8</v>
+      </c>
+      <c r="C314" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1">
+        <v>9</v>
+      </c>
+      <c r="C315" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1">
+        <v>0</v>
+      </c>
+      <c r="B316" t="s">
+        <v>33</v>
+      </c>
+      <c r="C316" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1">
+        <v>1</v>
+      </c>
+      <c r="C317" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1">
+        <v>2</v>
+      </c>
+      <c r="C318" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1">
+        <v>3</v>
+      </c>
+      <c r="C319" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1">
+        <v>4</v>
+      </c>
+      <c r="C320" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1">
+        <v>5</v>
+      </c>
+      <c r="C321" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1">
+        <v>6</v>
+      </c>
+      <c r="C322" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1">
+        <v>7</v>
+      </c>
+      <c r="C323" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1">
+        <v>8</v>
+      </c>
+      <c r="C324" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1">
+        <v>9</v>
+      </c>
+      <c r="C325" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1">
+        <v>0</v>
+      </c>
+      <c r="B326" t="s">
+        <v>34</v>
+      </c>
+      <c r="C326" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1">
+        <v>1</v>
+      </c>
+      <c r="C327" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1">
+        <v>2</v>
+      </c>
+      <c r="C328" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1">
+        <v>3</v>
+      </c>
+      <c r="C329" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1">
+        <v>4</v>
+      </c>
+      <c r="C330" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1">
+        <v>5</v>
+      </c>
+      <c r="C331" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1">
+        <v>6</v>
+      </c>
+      <c r="C332" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1">
+        <v>7</v>
+      </c>
+      <c r="C333" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1">
+        <v>8</v>
+      </c>
+      <c r="C334" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1">
+        <v>9</v>
+      </c>
+      <c r="C335" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1">
+        <v>0</v>
+      </c>
+      <c r="B336" t="s">
+        <v>35</v>
+      </c>
+      <c r="C336" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1">
+        <v>1</v>
+      </c>
+      <c r="C337" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1">
+        <v>2</v>
+      </c>
+      <c r="C338" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1">
+        <v>3</v>
+      </c>
+      <c r="C339" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1">
+        <v>4</v>
+      </c>
+      <c r="C340" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1">
+        <v>5</v>
+      </c>
+      <c r="C341" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1">
+        <v>6</v>
+      </c>
+      <c r="C342" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1">
+        <v>7</v>
+      </c>
+      <c r="C343" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1">
+        <v>8</v>
+      </c>
+      <c r="C344" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1">
+        <v>9</v>
+      </c>
+      <c r="C345" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1">
+        <v>0</v>
+      </c>
+      <c r="B346" t="s">
+        <v>36</v>
+      </c>
+      <c r="C346" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1">
+        <v>1</v>
+      </c>
+      <c r="C347" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1">
+        <v>2</v>
+      </c>
+      <c r="C348" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1">
+        <v>3</v>
+      </c>
+      <c r="C349" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1">
+        <v>5</v>
+      </c>
+      <c r="C350" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1">
+        <v>6</v>
+      </c>
+      <c r="C351" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="1">
+        <v>7</v>
+      </c>
+      <c r="C352" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1">
+        <v>8</v>
+      </c>
+      <c r="C353" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1">
+        <v>9</v>
+      </c>
+      <c r="C354" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1">
+        <v>0</v>
+      </c>
+      <c r="B355" t="s">
+        <v>37</v>
+      </c>
+      <c r="C355" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1">
+        <v>1</v>
+      </c>
+      <c r="C356" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="1">
+        <v>2</v>
+      </c>
+      <c r="C357" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1">
+        <v>3</v>
+      </c>
+      <c r="C358" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="1">
+        <v>5</v>
+      </c>
+      <c r="C359" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="1">
+        <v>6</v>
+      </c>
+      <c r="C360" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="1">
+        <v>7</v>
+      </c>
+      <c r="C361" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1">
+        <v>8</v>
+      </c>
+      <c r="C362" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="1">
+        <v>9</v>
+      </c>
+      <c r="C363" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="1">
+        <v>0</v>
+      </c>
+      <c r="B364" t="s">
+        <v>38</v>
+      </c>
+      <c r="C364" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="1">
+        <v>1</v>
+      </c>
+      <c r="C365" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="1">
+        <v>2</v>
+      </c>
+      <c r="C366" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1">
+        <v>3</v>
+      </c>
+      <c r="C367" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="1">
+        <v>5</v>
+      </c>
+      <c r="C368" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1">
+        <v>6</v>
+      </c>
+      <c r="C369" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="1">
+        <v>7</v>
+      </c>
+      <c r="C370" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="1">
+        <v>8</v>
+      </c>
+      <c r="C371" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="1">
+        <v>9</v>
+      </c>
+      <c r="C372" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1">
+        <v>0</v>
+      </c>
+      <c r="B373" t="s">
+        <v>39</v>
+      </c>
+      <c r="C373" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="1">
+        <v>1</v>
+      </c>
+      <c r="C374" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="1">
+        <v>2</v>
+      </c>
+      <c r="C375" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="1">
+        <v>3</v>
+      </c>
+      <c r="C376" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="1">
+        <v>4</v>
+      </c>
+      <c r="C377" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="1">
+        <v>5</v>
+      </c>
+      <c r="C378" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1">
+        <v>6</v>
+      </c>
+      <c r="C379" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="1">
+        <v>7</v>
+      </c>
+      <c r="C380" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1">
+        <v>8</v>
+      </c>
+      <c r="C381" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1">
+        <v>9</v>
+      </c>
+      <c r="C382" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="1">
+        <v>0</v>
+      </c>
+      <c r="B383" t="s">
+        <v>40</v>
+      </c>
+      <c r="C383" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1">
+        <v>1</v>
+      </c>
+      <c r="C384" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="1">
+        <v>2</v>
+      </c>
+      <c r="C385" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="1">
+        <v>3</v>
+      </c>
+      <c r="C386" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="1">
+        <v>5</v>
+      </c>
+      <c r="C387" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="1">
+        <v>6</v>
+      </c>
+      <c r="C388" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="1">
+        <v>7</v>
+      </c>
+      <c r="C389" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="1">
+        <v>8</v>
+      </c>
+      <c r="C390" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="1">
+        <v>9</v>
+      </c>
+      <c r="C391" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="1">
+        <v>0</v>
+      </c>
+      <c r="B392" t="s">
+        <v>41</v>
+      </c>
+      <c r="C392" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="1">
+        <v>1</v>
+      </c>
+      <c r="C393" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="1">
+        <v>2</v>
+      </c>
+      <c r="C394" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="1">
+        <v>3</v>
+      </c>
+      <c r="C395" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="1">
+        <v>4</v>
+      </c>
+      <c r="C396" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="1">
+        <v>5</v>
+      </c>
+      <c r="C397" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="1">
+        <v>6</v>
+      </c>
+      <c r="C398" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="1">
+        <v>7</v>
+      </c>
+      <c r="C399" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="1">
+        <v>8</v>
+      </c>
+      <c r="C400" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="1">
+        <v>9</v>
+      </c>
+      <c r="C401" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="1">
+        <v>0</v>
+      </c>
+      <c r="B402" t="s">
+        <v>42</v>
+      </c>
+      <c r="C402" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="1">
+        <v>1</v>
+      </c>
+      <c r="C403" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="1">
+        <v>2</v>
+      </c>
+      <c r="C404" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="1">
+        <v>3</v>
+      </c>
+      <c r="C405" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="1">
+        <v>5</v>
+      </c>
+      <c r="C406" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="1">
+        <v>6</v>
+      </c>
+      <c r="C407" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="1">
+        <v>7</v>
+      </c>
+      <c r="C408" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="1">
+        <v>8</v>
+      </c>
+      <c r="C409" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="1">
+        <v>9</v>
+      </c>
+      <c r="C410" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="1">
+        <v>0</v>
+      </c>
+      <c r="B411" t="s">
+        <v>43</v>
+      </c>
+      <c r="C411" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="1">
+        <v>1</v>
+      </c>
+      <c r="C412" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="1">
+        <v>2</v>
+      </c>
+      <c r="C413" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="1">
+        <v>3</v>
+      </c>
+      <c r="C414" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="1">
+        <v>4</v>
+      </c>
+      <c r="C415" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="1">
+        <v>5</v>
+      </c>
+      <c r="C416" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="1">
+        <v>6</v>
+      </c>
+      <c r="C417" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="1">
+        <v>7</v>
+      </c>
+      <c r="C418" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="1">
+        <v>8</v>
+      </c>
+      <c r="C419" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="1">
+        <v>9</v>
+      </c>
+      <c r="C420" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="1">
+        <v>0</v>
+      </c>
+      <c r="B421" t="s">
+        <v>44</v>
+      </c>
+      <c r="C421" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="1">
+        <v>1</v>
+      </c>
+      <c r="C422" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="1">
+        <v>2</v>
+      </c>
+      <c r="C423" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="1">
+        <v>3</v>
+      </c>
+      <c r="C424" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="1">
+        <v>5</v>
+      </c>
+      <c r="C425" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="1">
+        <v>6</v>
+      </c>
+      <c r="C426" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="1">
+        <v>7</v>
+      </c>
+      <c r="C427" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="1">
+        <v>8</v>
+      </c>
+      <c r="C428" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="1">
+        <v>9</v>
+      </c>
+      <c r="C429" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="1">
+        <v>0</v>
+      </c>
+      <c r="B430" t="s">
+        <v>45</v>
+      </c>
+      <c r="C430" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="1">
+        <v>1</v>
+      </c>
+      <c r="C431" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="1">
+        <v>2</v>
+      </c>
+      <c r="C432" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="1">
+        <v>3</v>
+      </c>
+      <c r="C433" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="1">
+        <v>5</v>
+      </c>
+      <c r="C434" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="1">
+        <v>6</v>
+      </c>
+      <c r="C435" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="1">
+        <v>7</v>
+      </c>
+      <c r="C436" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="1">
+        <v>8</v>
+      </c>
+      <c r="C437" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="1">
+        <v>9</v>
+      </c>
+      <c r="C438" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="1">
+        <v>0</v>
+      </c>
+      <c r="B439" t="s">
+        <v>46</v>
+      </c>
+      <c r="C439" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="1">
+        <v>1</v>
+      </c>
+      <c r="C440" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="1">
+        <v>2</v>
+      </c>
+      <c r="C441" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="1">
+        <v>3</v>
+      </c>
+      <c r="C442" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="1">
+        <v>4</v>
+      </c>
+      <c r="C443" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="1">
+        <v>5</v>
+      </c>
+      <c r="C444" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="1">
+        <v>6</v>
+      </c>
+      <c r="C445" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="1">
+        <v>7</v>
+      </c>
+      <c r="C446" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="1">
+        <v>8</v>
+      </c>
+      <c r="C447" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="1">
+        <v>9</v>
+      </c>
+      <c r="C448" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="1">
+        <v>0</v>
+      </c>
+      <c r="B449" t="s">
+        <v>47</v>
+      </c>
+      <c r="C449" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="1">
+        <v>1</v>
+      </c>
+      <c r="C450" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="1">
+        <v>2</v>
+      </c>
+      <c r="C451" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="1">
+        <v>3</v>
+      </c>
+      <c r="C452" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="1">
+        <v>4</v>
+      </c>
+      <c r="C453" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="1">
+        <v>5</v>
+      </c>
+      <c r="C454" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="1">
+        <v>6</v>
+      </c>
+      <c r="C455" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="1">
+        <v>7</v>
+      </c>
+      <c r="C456" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="1">
+        <v>8</v>
+      </c>
+      <c r="C457" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="1">
+        <v>9</v>
+      </c>
+      <c r="C458" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="1">
+        <v>0</v>
+      </c>
+      <c r="B459" t="s">
+        <v>48</v>
+      </c>
+      <c r="C459" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="1">
+        <v>1</v>
+      </c>
+      <c r="C460" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="1">
+        <v>2</v>
+      </c>
+      <c r="C461" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="1">
+        <v>3</v>
+      </c>
+      <c r="C462" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="1">
+        <v>4</v>
+      </c>
+      <c r="C463" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="1">
+        <v>5</v>
+      </c>
+      <c r="C464" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="1">
+        <v>6</v>
+      </c>
+      <c r="C465" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="1">
+        <v>7</v>
+      </c>
+      <c r="C466" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1">
+        <v>8</v>
+      </c>
+      <c r="C467" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="1">
+        <v>9</v>
+      </c>
+      <c r="C468" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="1">
+        <v>0</v>
+      </c>
+      <c r="B469" t="s">
+        <v>49</v>
+      </c>
+      <c r="C469" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="1">
+        <v>1</v>
+      </c>
+      <c r="C470" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="1">
+        <v>2</v>
+      </c>
+      <c r="C471" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="1">
+        <v>3</v>
+      </c>
+      <c r="C472" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="1">
+        <v>4</v>
+      </c>
+      <c r="C473" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="1">
+        <v>5</v>
+      </c>
+      <c r="C474" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="1">
+        <v>6</v>
+      </c>
+      <c r="C475" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="1">
+        <v>7</v>
+      </c>
+      <c r="C476" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="1">
+        <v>8</v>
+      </c>
+      <c r="C477" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="1">
+        <v>9</v>
+      </c>
+      <c r="C478" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="1">
+        <v>0</v>
+      </c>
+      <c r="B479" t="s">
+        <v>50</v>
+      </c>
+      <c r="C479" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="1">
+        <v>1</v>
+      </c>
+      <c r="C480" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="1">
+        <v>2</v>
+      </c>
+      <c r="C481" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="1">
+        <v>3</v>
+      </c>
+      <c r="C482" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="1">
+        <v>4</v>
+      </c>
+      <c r="C483" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="1">
+        <v>5</v>
+      </c>
+      <c r="C484" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="1">
+        <v>6</v>
+      </c>
+      <c r="C485" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="1">
+        <v>7</v>
+      </c>
+      <c r="C486" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="1">
+        <v>8</v>
+      </c>
+      <c r="C487" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="1">
+        <v>9</v>
+      </c>
+      <c r="C488" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="1">
+        <v>0</v>
+      </c>
+      <c r="B489" t="s">
+        <v>51</v>
+      </c>
+      <c r="C489" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="1">
+        <v>1</v>
+      </c>
+      <c r="C490" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="1">
+        <v>2</v>
+      </c>
+      <c r="C491" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="1">
+        <v>3</v>
+      </c>
+      <c r="C492" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="1">
+        <v>4</v>
+      </c>
+      <c r="C493" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="1">
+        <v>5</v>
+      </c>
+      <c r="C494" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="1">
+        <v>6</v>
+      </c>
+      <c r="C495" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="1">
+        <v>7</v>
+      </c>
+      <c r="C496" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="1">
+        <v>8</v>
+      </c>
+      <c r="C497" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="1">
+        <v>9</v>
+      </c>
+      <c r="C498" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="1">
+        <v>0</v>
+      </c>
+      <c r="B499" t="s">
+        <v>52</v>
+      </c>
+      <c r="C499" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="1">
+        <v>1</v>
+      </c>
+      <c r="C500" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="1">
+        <v>2</v>
+      </c>
+      <c r="C501" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="1">
+        <v>3</v>
+      </c>
+      <c r="C502" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="1">
+        <v>4</v>
+      </c>
+      <c r="C503" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="1">
+        <v>5</v>
+      </c>
+      <c r="C504" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="1">
+        <v>6</v>
+      </c>
+      <c r="C505" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="1">
+        <v>7</v>
+      </c>
+      <c r="C506" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="1">
+        <v>8</v>
+      </c>
+      <c r="C507" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="1">
+        <v>9</v>
+      </c>
+      <c r="C508" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="1">
+        <v>0</v>
+      </c>
+      <c r="B509" t="s">
+        <v>53</v>
+      </c>
+      <c r="C509" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="1">
+        <v>1</v>
+      </c>
+      <c r="C510" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="1">
+        <v>2</v>
+      </c>
+      <c r="C511" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="1">
+        <v>3</v>
+      </c>
+      <c r="C512" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="1">
+        <v>4</v>
+      </c>
+      <c r="C513" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="1">
+        <v>5</v>
+      </c>
+      <c r="C514" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="1">
+        <v>6</v>
+      </c>
+      <c r="C515" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="1">
+        <v>7</v>
+      </c>
+      <c r="C516" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="1">
+        <v>8</v>
+      </c>
+      <c r="C517" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="1">
+        <v>9</v>
+      </c>
+      <c r="C518" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" s="1">
+        <v>0</v>
+      </c>
+      <c r="B519" t="s">
+        <v>54</v>
+      </c>
+      <c r="C519" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="1">
+        <v>1</v>
+      </c>
+      <c r="C520" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="1">
+        <v>2</v>
+      </c>
+      <c r="C521" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" s="1">
+        <v>3</v>
+      </c>
+      <c r="C522" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="1">
+        <v>4</v>
+      </c>
+      <c r="C523" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="1">
+        <v>5</v>
+      </c>
+      <c r="C524" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="1">
+        <v>6</v>
+      </c>
+      <c r="C525" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="1">
+        <v>7</v>
+      </c>
+      <c r="C526" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="1">
+        <v>8</v>
+      </c>
+      <c r="C527" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="1">
+        <v>9</v>
+      </c>
+      <c r="C528" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="1">
+        <v>0</v>
+      </c>
+      <c r="B529" t="s">
+        <v>55</v>
+      </c>
+      <c r="C529" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="1">
+        <v>1</v>
+      </c>
+      <c r="C530" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="1">
+        <v>2</v>
+      </c>
+      <c r="C531" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="1">
+        <v>3</v>
+      </c>
+      <c r="C532" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="1">
+        <v>4</v>
+      </c>
+      <c r="C533" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" s="1">
+        <v>5</v>
+      </c>
+      <c r="C534" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="1">
+        <v>6</v>
+      </c>
+      <c r="C535" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" s="1">
+        <v>7</v>
+      </c>
+      <c r="C536" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" s="1">
+        <v>8</v>
+      </c>
+      <c r="C537" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" s="1">
+        <v>9</v>
+      </c>
+      <c r="C538" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="1">
+        <v>0</v>
+      </c>
+      <c r="B539" t="s">
+        <v>56</v>
+      </c>
+      <c r="C539" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="1">
+        <v>1</v>
+      </c>
+      <c r="C540" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" s="1">
+        <v>2</v>
+      </c>
+      <c r="C541" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" s="1">
+        <v>3</v>
+      </c>
+      <c r="C542" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" s="1">
+        <v>4</v>
+      </c>
+      <c r="C543" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" s="1">
+        <v>5</v>
+      </c>
+      <c r="C544" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" s="1">
+        <v>6</v>
+      </c>
+      <c r="C545" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" s="1">
+        <v>7</v>
+      </c>
+      <c r="C546" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" s="1">
+        <v>8</v>
+      </c>
+      <c r="C547" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" s="1">
+        <v>9</v>
+      </c>
+      <c r="C548" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" s="1">
+        <v>0</v>
+      </c>
+      <c r="B549" t="s">
+        <v>57</v>
+      </c>
+      <c r="C549" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" s="1">
+        <v>1</v>
+      </c>
+      <c r="C550" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" s="1">
+        <v>2</v>
+      </c>
+      <c r="C551" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" s="1">
+        <v>3</v>
+      </c>
+      <c r="C552" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" s="1">
+        <v>4</v>
+      </c>
+      <c r="C553" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" s="1">
+        <v>5</v>
+      </c>
+      <c r="C554" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" s="1">
+        <v>6</v>
+      </c>
+      <c r="C555" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" s="1">
+        <v>7</v>
+      </c>
+      <c r="C556" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" s="1">
+        <v>8</v>
+      </c>
+      <c r="C557" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" s="1">
+        <v>9</v>
+      </c>
+      <c r="C558" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" s="1">
+        <v>0</v>
+      </c>
+      <c r="B559" t="s">
+        <v>58</v>
+      </c>
+      <c r="C559" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" s="1">
+        <v>1</v>
+      </c>
+      <c r="C560" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" s="1">
+        <v>2</v>
+      </c>
+      <c r="C561" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" s="1">
+        <v>3</v>
+      </c>
+      <c r="C562" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" s="1">
+        <v>5</v>
+      </c>
+      <c r="C563" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="1">
+        <v>6</v>
+      </c>
+      <c r="C564" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="1">
+        <v>7</v>
+      </c>
+      <c r="C565" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="1">
+        <v>8</v>
+      </c>
+      <c r="C566" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="1">
+        <v>9</v>
+      </c>
+      <c r="C567" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" s="1">
+        <v>0</v>
+      </c>
+      <c r="B568" t="s">
         <v>59</v>
+      </c>
+      <c r="C568" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" s="1">
+        <v>1</v>
+      </c>
+      <c r="C569" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" s="1">
+        <v>2</v>
+      </c>
+      <c r="C570" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" s="1">
+        <v>3</v>
+      </c>
+      <c r="C571" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" s="1">
+        <v>4</v>
+      </c>
+      <c r="C572" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" s="1">
+        <v>5</v>
+      </c>
+      <c r="C573" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" s="1">
+        <v>6</v>
+      </c>
+      <c r="C574" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" s="1">
+        <v>7</v>
+      </c>
+      <c r="C575" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" s="1">
+        <v>8</v>
+      </c>
+      <c r="C576" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" s="1">
+        <v>9</v>
+      </c>
+      <c r="C577" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" s="1">
+        <v>0</v>
+      </c>
+      <c r="B578" t="s">
+        <v>60</v>
+      </c>
+      <c r="C578" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" s="1">
+        <v>1</v>
+      </c>
+      <c r="C579" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" s="1">
+        <v>2</v>
+      </c>
+      <c r="C580" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" s="1">
+        <v>3</v>
+      </c>
+      <c r="C581" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" s="1">
+        <v>5</v>
+      </c>
+      <c r="C582" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" s="1">
+        <v>6</v>
+      </c>
+      <c r="C583" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" s="1">
+        <v>7</v>
+      </c>
+      <c r="C584" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" s="1">
+        <v>8</v>
+      </c>
+      <c r="C585" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" s="1">
+        <v>9</v>
+      </c>
+      <c r="C586" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" s="1">
+        <v>0</v>
+      </c>
+      <c r="B587" t="s">
+        <v>61</v>
+      </c>
+      <c r="C587" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" s="1">
+        <v>1</v>
+      </c>
+      <c r="C588" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" s="1">
+        <v>2</v>
+      </c>
+      <c r="C589" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" s="1">
+        <v>3</v>
+      </c>
+      <c r="C590" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" s="1">
+        <v>4</v>
+      </c>
+      <c r="C591" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" s="1">
+        <v>5</v>
+      </c>
+      <c r="C592" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" s="1">
+        <v>6</v>
+      </c>
+      <c r="C593" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" s="1">
+        <v>7</v>
+      </c>
+      <c r="C594" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" s="1">
+        <v>8</v>
+      </c>
+      <c r="C595" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" s="1">
+        <v>9</v>
+      </c>
+      <c r="C596" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" s="1">
+        <v>0</v>
+      </c>
+      <c r="B597" t="s">
+        <v>62</v>
+      </c>
+      <c r="C597" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" s="1">
+        <v>1</v>
+      </c>
+      <c r="C598" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" s="1">
+        <v>2</v>
+      </c>
+      <c r="C599" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" s="1">
+        <v>3</v>
+      </c>
+      <c r="C600" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" s="1">
+        <v>4</v>
+      </c>
+      <c r="C601" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" s="1">
+        <v>5</v>
+      </c>
+      <c r="C602" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" s="1">
+        <v>6</v>
+      </c>
+      <c r="C603" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604" s="1">
+        <v>7</v>
+      </c>
+      <c r="C604" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605" s="1">
+        <v>8</v>
+      </c>
+      <c r="C605" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606" s="1">
+        <v>9</v>
+      </c>
+      <c r="C606" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607" s="1">
+        <v>0</v>
+      </c>
+      <c r="B607" t="s">
+        <v>63</v>
+      </c>
+      <c r="C607" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608" s="1">
+        <v>1</v>
+      </c>
+      <c r="C608" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609" s="1">
+        <v>2</v>
+      </c>
+      <c r="C609" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610" s="1">
+        <v>3</v>
+      </c>
+      <c r="C610" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611" s="1">
+        <v>5</v>
+      </c>
+      <c r="C611" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612" s="1">
+        <v>6</v>
+      </c>
+      <c r="C612" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613" s="1">
+        <v>7</v>
+      </c>
+      <c r="C613" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614" s="1">
+        <v>8</v>
+      </c>
+      <c r="C614" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615" s="1">
+        <v>9</v>
+      </c>
+      <c r="C615" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616" s="1">
+        <v>0</v>
+      </c>
+      <c r="B616" t="s">
+        <v>64</v>
+      </c>
+      <c r="C616" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617" s="1">
+        <v>1</v>
+      </c>
+      <c r="C617" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618" s="1">
+        <v>2</v>
+      </c>
+      <c r="C618" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619" s="1">
+        <v>3</v>
+      </c>
+      <c r="C619" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620" s="1">
+        <v>5</v>
+      </c>
+      <c r="C620" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621" s="1">
+        <v>6</v>
+      </c>
+      <c r="C621" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622" s="1">
+        <v>7</v>
+      </c>
+      <c r="C622" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623" s="1">
+        <v>8</v>
+      </c>
+      <c r="C623" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624" s="1">
+        <v>9</v>
+      </c>
+      <c r="C624" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625" s="1">
+        <v>0</v>
+      </c>
+      <c r="B625" t="s">
+        <v>65</v>
+      </c>
+      <c r="C625" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" s="1">
+        <v>1</v>
+      </c>
+      <c r="C626" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627" s="1">
+        <v>2</v>
+      </c>
+      <c r="C627" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628" s="1">
+        <v>3</v>
+      </c>
+      <c r="C628" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629" s="1">
+        <v>5</v>
+      </c>
+      <c r="C629" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630" s="1">
+        <v>6</v>
+      </c>
+      <c r="C630" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631" s="1">
+        <v>7</v>
+      </c>
+      <c r="C631" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632" s="1">
+        <v>8</v>
+      </c>
+      <c r="C632" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633" s="1">
+        <v>9</v>
+      </c>
+      <c r="C633" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634" s="1">
+        <v>0</v>
+      </c>
+      <c r="B634" t="s">
+        <v>66</v>
+      </c>
+      <c r="C634" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" s="1">
+        <v>1</v>
+      </c>
+      <c r="C635" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636" s="1">
+        <v>2</v>
+      </c>
+      <c r="C636" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637" s="1">
+        <v>3</v>
+      </c>
+      <c r="C637" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638" s="1">
+        <v>5</v>
+      </c>
+      <c r="C638" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639" s="1">
+        <v>6</v>
+      </c>
+      <c r="C639" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640" s="1">
+        <v>7</v>
+      </c>
+      <c r="C640" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641" s="1">
+        <v>8</v>
+      </c>
+      <c r="C641" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642" s="1">
+        <v>9</v>
+      </c>
+      <c r="C642" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643" s="1">
+        <v>0</v>
+      </c>
+      <c r="B643" t="s">
+        <v>67</v>
+      </c>
+      <c r="C643" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644" s="1">
+        <v>1</v>
+      </c>
+      <c r="C644" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="A645" s="1">
+        <v>2</v>
+      </c>
+      <c r="C645" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646" s="1">
+        <v>3</v>
+      </c>
+      <c r="C646" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647" s="1">
+        <v>4</v>
+      </c>
+      <c r="C647" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648" s="1">
+        <v>5</v>
+      </c>
+      <c r="C648" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649" s="1">
+        <v>6</v>
+      </c>
+      <c r="C649" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650" s="1">
+        <v>7</v>
+      </c>
+      <c r="C650" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651" s="1">
+        <v>8</v>
+      </c>
+      <c r="C651" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="A652" s="1">
+        <v>9</v>
+      </c>
+      <c r="C652" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="A653" s="1">
+        <v>0</v>
+      </c>
+      <c r="B653" t="s">
+        <v>68</v>
+      </c>
+      <c r="C653" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="A654" s="1">
+        <v>1</v>
+      </c>
+      <c r="C654" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="A655" s="1">
+        <v>2</v>
+      </c>
+      <c r="C655" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="A656" s="1">
+        <v>3</v>
+      </c>
+      <c r="C656" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3">
+      <c r="A657" s="1">
+        <v>4</v>
+      </c>
+      <c r="C657" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3">
+      <c r="A658" s="1">
+        <v>5</v>
+      </c>
+      <c r="C658" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3">
+      <c r="A659" s="1">
+        <v>6</v>
+      </c>
+      <c r="C659" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3">
+      <c r="A660" s="1">
+        <v>7</v>
+      </c>
+      <c r="C660" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3">
+      <c r="A661" s="1">
+        <v>8</v>
+      </c>
+      <c r="C661" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3">
+      <c r="A662" s="1">
+        <v>9</v>
+      </c>
+      <c r="C662" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3">
+      <c r="A663" s="1">
+        <v>0</v>
+      </c>
+      <c r="B663" t="s">
+        <v>69</v>
+      </c>
+      <c r="C663" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="A664" s="1">
+        <v>1</v>
+      </c>
+      <c r="C664" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="A665" s="1">
+        <v>2</v>
+      </c>
+      <c r="C665" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3">
+      <c r="A666" s="1">
+        <v>3</v>
+      </c>
+      <c r="C666" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3">
+      <c r="A667" s="1">
+        <v>5</v>
+      </c>
+      <c r="C667" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3">
+      <c r="A668" s="1">
+        <v>6</v>
+      </c>
+      <c r="C668" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3">
+      <c r="A669" s="1">
+        <v>7</v>
+      </c>
+      <c r="C669" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3">
+      <c r="A670" s="1">
+        <v>8</v>
+      </c>
+      <c r="C670" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3">
+      <c r="A671" s="1">
+        <v>9</v>
+      </c>
+      <c r="C671" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3">
+      <c r="A672" s="1">
+        <v>0</v>
+      </c>
+      <c r="B672" t="s">
+        <v>70</v>
+      </c>
+      <c r="C672" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3">
+      <c r="A673" s="1">
+        <v>1</v>
+      </c>
+      <c r="C673" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3">
+      <c r="A674" s="1">
+        <v>2</v>
+      </c>
+      <c r="C674" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3">
+      <c r="A675" s="1">
+        <v>3</v>
+      </c>
+      <c r="C675" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3">
+      <c r="A676" s="1">
+        <v>4</v>
+      </c>
+      <c r="C676" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3">
+      <c r="A677" s="1">
+        <v>5</v>
+      </c>
+      <c r="C677" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3">
+      <c r="A678" s="1">
+        <v>6</v>
+      </c>
+      <c r="C678" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3">
+      <c r="A679" s="1">
+        <v>7</v>
+      </c>
+      <c r="C679" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3">
+      <c r="A680" s="1">
+        <v>8</v>
+      </c>
+      <c r="C680" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3">
+      <c r="A681" s="1">
+        <v>9</v>
+      </c>
+      <c r="C681" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
